--- a/Result/Sc/Sum3.xlsx
+++ b/Result/Sc/Sum3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\permeable_bed\code\permeable_bed\Result\Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF689586-C779-46F9-8B22-190D27E4D638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319C494-E13F-43BB-88FC-2C66B99F86D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1044" windowWidth="18360" windowHeight="8964" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1848" windowWidth="18360" windowHeight="8964" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
